--- a/docs/InterpretatieVlaggenCodelijst-to-observation-interpretation.xlsx
+++ b/docs/InterpretatieVlaggenCodelijst-to-observation-interpretation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-17T13:17:30+02:00</t>
+    <t>2024-04-09T16:00:20+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Nictiz (info@nictiz.nl(WORK))</t>
   </si>
   <si>
     <t>Description</t>
@@ -108,10 +108,13 @@
     <t>Relationship</t>
   </si>
   <si>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/v2/0078|http://hl7.org/fhir/v2/0078 version 2.8.2</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>281302008</t>
@@ -467,94 +470,96 @@
       <c r="C2" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>33</v>
+      </c>
       <c r="E2" t="s" s="2">
         <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s" s="2">
         <v>44</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
